--- a/medicine/Psychotrope/Le_Baron_(bar)/Le_Baron_(bar).xlsx
+++ b/medicine/Psychotrope/Le_Baron_(bar)/Le_Baron_(bar).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le Baron est un célèbre bar-discothèque situé à Paris, au 6, avenue Marceau. Il est situé près du pont de l'Alma.
@@ -512,15 +524,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lieu était à l'origine un bar à hôtesses[1]. La taille relativement modeste du local ne lui permet pas d'accueillir plus de cent cinquante personnes[2].
-Le Baron, club ouvert le 14 octobre 2004[3],[4] par André Saraiva (artiste utilisant le pseudonyme André) et Lionel Bensemoun (organisateurs des soirées La Johnson), est parfois considéré encore en 2010 comme « le plus branché de Paris »[5],[6]. Ainsi, sa porte a la réputation d'être assez difficile à franchir, les physionomistes ne laissant généralement entrer que les habitués[7]. 
-Pour autant, dans un hors-série sur les lieux branchés de Paris, Le Nouvel Observateur déplorait une trop grande hétérogénéité des disc jockey, dont certains ne seraient « pas toujours top »[7].
-En 2012, Le Baron ouvre à Londres, ainsi qu'à New York[8] décoré par Vincent Darré.
-Début 2016, un changement de direction s'opère. Quelques semaines plus tard, le 6 février, André Saraiva annonce la fermeture du Baron sur son compte Instagram[9]. Le Baron continue cependant d'exister, mais avec une ambiance différente.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lieu était à l'origine un bar à hôtesses. La taille relativement modeste du local ne lui permet pas d'accueillir plus de cent cinquante personnes.
+Le Baron, club ouvert le 14 octobre 2004, par André Saraiva (artiste utilisant le pseudonyme André) et Lionel Bensemoun (organisateurs des soirées La Johnson), est parfois considéré encore en 2010 comme « le plus branché de Paris »,. Ainsi, sa porte a la réputation d'être assez difficile à franchir, les physionomistes ne laissant généralement entrer que les habitués. 
+Pour autant, dans un hors-série sur les lieux branchés de Paris, Le Nouvel Observateur déplorait une trop grande hétérogénéité des disc jockey, dont certains ne seraient « pas toujours top ».
+En 2012, Le Baron ouvre à Londres, ainsi qu'à New York décoré par Vincent Darré.
+Début 2016, un changement de direction s'opère. Quelques semaines plus tard, le 6 février, André Saraiva annonce la fermeture du Baron sur son compte Instagram. Le Baron continue cependant d'exister, mais avec une ambiance différente.
 Le logotype initial du club est un chapeau haut-de-forme dessiné par André Saraiva. Désormais, c'est un pirate. Le club a fermé fin 2018.
-Depuis début décembre 2018 lui a succédé au même endroit le club « Medellin », lancé par Audren Dimitris, ancien employé du Baron. Le lieu fait polémique auprès de personnes originaires de Colombie, en raison d'une supposée apologie du narcotrafiquant Pablo Escobar dans la décoration de l'établissement[10].
+Depuis début décembre 2018 lui a succédé au même endroit le club « Medellin », lancé par Audren Dimitris, ancien employé du Baron. Le lieu fait polémique auprès de personnes originaires de Colombie, en raison d'une supposée apologie du narcotrafiquant Pablo Escobar dans la décoration de l'établissement.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Dans la chanson</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Baron est mentionné dans la chanson Non non non (Écouter Barbara) écrite par Doriand, composée par Edgar Ficat, arrangée par Claire Cosnefroy et interprétée par Camélia Jordana[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Baron est mentionné dans la chanson Non non non (Écouter Barbara) écrite par Doriand, composée par Edgar Ficat, arrangée par Claire Cosnefroy et interprétée par Camélia Jordana.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La première scène du film Les Petits Mouchoirs, de Guillaume Canet sorti en 2010, se déroule au Baron. Ludo, le personnage interprété par Jean Dujardin, sort des toilettes, passe par la piste de danse avant de sortir de la boîte et de prendre son scooter, direction place de l'Alma.
 Dans le film Tout ce qui brille, de Géraldine Nakache et Hervé Mimran sorti en 2010, la première scène se déroule dans le bar. Ely et Lila y entrent par une porte dérobée.
@@ -613,9 +631,11 @@
           <t>Dans la littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un des physionomistes les plus connus du club après le célèbre Bak, Jonathan, dit « big John », publie un livre médiatisé sur sa vie et son métier, Big John de Paname, aux éditions Anne Carrière, en 2016[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un des physionomistes les plus connus du club après le célèbre Bak, Jonathan, dit « big John », publie un livre médiatisé sur sa vie et son métier, Big John de Paname, aux éditions Anne Carrière, en 2016.
 </t>
         </is>
       </c>
